--- a/team_specific_matrix/UNI_B.xlsx
+++ b/team_specific_matrix/UNI_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1306532663316583</v>
+        <v>0.1441048034934498</v>
       </c>
       <c r="C2">
-        <v>0.6582914572864321</v>
+        <v>0.6375545851528385</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005025125628140704</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1306532663316583</v>
+        <v>0.1397379912663755</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07537688442211055</v>
+        <v>0.07423580786026202</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007633587786259542</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01526717557251908</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7938931297709924</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.183206106870229</v>
+        <v>0.163265306122449</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06432748538011696</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01169590643274854</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07017543859649122</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.239766081871345</v>
+        <v>0.2263157894736842</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01754385964912281</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2222222222222222</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="R6">
-        <v>0.05263157894736842</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="S6">
-        <v>0.3216374269005848</v>
+        <v>0.3210526315789474</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07514450867052024</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005780346820809248</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="E7">
-        <v>0.005780346820809248</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F7">
-        <v>0.09826589595375723</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09826589595375723</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01734104046242774</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1849710982658959</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="R7">
-        <v>0.08092485549132948</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="S7">
-        <v>0.4335260115606936</v>
+        <v>0.417989417989418</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09552238805970149</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02388059701492537</v>
+        <v>0.02191780821917808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05671641791044776</v>
+        <v>0.06027397260273973</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09850746268656717</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01194029850746269</v>
+        <v>0.01095890410958904</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1791044776119403</v>
+        <v>0.189041095890411</v>
       </c>
       <c r="R8">
-        <v>0.1313432835820895</v>
+        <v>0.1287671232876712</v>
       </c>
       <c r="S8">
-        <v>0.4029850746268657</v>
+        <v>0.3917808219178082</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09333333333333334</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05333333333333334</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1266666666666667</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006666666666666667</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1533333333333333</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.1036585365853658</v>
       </c>
       <c r="S9">
-        <v>0.4466666666666667</v>
+        <v>0.451219512195122</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1051502145922747</v>
+        <v>0.1064039408866995</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02360515021459228</v>
+        <v>0.02167487684729064</v>
       </c>
       <c r="E10">
-        <v>0.001072961373390558</v>
+        <v>0.0009852216748768472</v>
       </c>
       <c r="F10">
-        <v>0.07296137339055794</v>
+        <v>0.07684729064039408</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07510729613733906</v>
+        <v>0.0748768472906404</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01072961373390558</v>
+        <v>0.01083743842364532</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2060085836909871</v>
+        <v>0.2019704433497537</v>
       </c>
       <c r="R10">
-        <v>0.09763948497854077</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="S10">
-        <v>0.407725321888412</v>
+        <v>0.4098522167487685</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1343873517786561</v>
+        <v>0.1307420494699647</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1185770750988142</v>
+        <v>0.1130742049469965</v>
       </c>
       <c r="K11">
-        <v>0.1897233201581028</v>
+        <v>0.1908127208480565</v>
       </c>
       <c r="L11">
-        <v>0.549407114624506</v>
+        <v>0.558303886925795</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007905138339920948</v>
+        <v>0.007067137809187279</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7610062893081762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2214285714285714</v>
+        <v>0.2138364779874214</v>
       </c>
       <c r="K12">
-        <v>0.007142857142857143</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L12">
-        <v>0.007142857142857143</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01428571428571429</v>
+        <v>0.01257861635220126</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1333333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006451612903225806</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1612903225806452</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="I15">
-        <v>0.07741935483870968</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="J15">
-        <v>0.3806451612903226</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K15">
-        <v>0.09032258064516129</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02580645161290323</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N15">
-        <v>0.01290322580645161</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="O15">
-        <v>0.06451612903225806</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1806451612903226</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.16</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="I16">
-        <v>0.04666666666666667</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="J16">
-        <v>0.4066666666666667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1266666666666667</v>
+        <v>0.1286549707602339</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01474926253687316</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1858407079646018</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="I17">
-        <v>0.07964601769911504</v>
+        <v>0.08401084010840108</v>
       </c>
       <c r="J17">
-        <v>0.4542772861356932</v>
+        <v>0.4417344173441735</v>
       </c>
       <c r="K17">
-        <v>0.08554572271386431</v>
+        <v>0.09214092140921409</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02359882005899705</v>
+        <v>0.02168021680216802</v>
       </c>
       <c r="N17">
-        <v>0.002949852507374631</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="O17">
-        <v>0.04424778761061947</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1091445427728614</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005917159763313609</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1597633136094675</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="I18">
-        <v>0.1420118343195266</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="J18">
-        <v>0.3905325443786982</v>
+        <v>0.3967391304347826</v>
       </c>
       <c r="K18">
-        <v>0.1597633136094675</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04733727810650887</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04733727810650887</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.04733727810650887</v>
+        <v>0.05434782608695652</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01825993555316864</v>
+        <v>0.01766437684003926</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2137486573576799</v>
+        <v>0.2158979391560353</v>
       </c>
       <c r="I19">
-        <v>0.08485499462943072</v>
+        <v>0.08341511285574092</v>
       </c>
       <c r="J19">
-        <v>0.3791621911922664</v>
+        <v>0.3699705593719333</v>
       </c>
       <c r="K19">
-        <v>0.1235230934479055</v>
+        <v>0.1285574092247301</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02363050483351235</v>
+        <v>0.02355250245338567</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06981740064446831</v>
+        <v>0.07262021589793916</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08700322234156821</v>
+        <v>0.08832188420019627</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNI_B.xlsx
+++ b/team_specific_matrix/UNI_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1441048034934498</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C2">
-        <v>0.6375545851528385</v>
+        <v>0.6300813008130082</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004366812227074236</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1397379912663755</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07423580786026202</v>
+        <v>0.08536585365853659</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006802721088435374</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C3">
-        <v>0.006802721088435374</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01360544217687075</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8095238095238095</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.163265306122449</v>
+        <v>0.167741935483871</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3055555555555556</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07368421052631578</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01052631578947368</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06842105263157895</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2263157894736842</v>
+        <v>0.2330097087378641</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02105263157894737</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2210526315789474</v>
+        <v>0.2184466019417476</v>
       </c>
       <c r="R6">
-        <v>0.05789473684210526</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="S6">
-        <v>0.3210526315789474</v>
+        <v>0.3300970873786408</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09523809523809523</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005291005291005291</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="E7">
-        <v>0.005291005291005291</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="F7">
-        <v>0.09523809523809523</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1058201058201058</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01587301587301587</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1798941798941799</v>
+        <v>0.1980676328502415</v>
       </c>
       <c r="R7">
-        <v>0.07936507936507936</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="S7">
-        <v>0.417989417989418</v>
+        <v>0.4057971014492754</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0958904109589041</v>
+        <v>0.0960591133004926</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02191780821917808</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06027397260273973</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1013698630136986</v>
+        <v>0.0960591133004926</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01095890410958904</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.189041095890411</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="R8">
-        <v>0.1287671232876712</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="S8">
-        <v>0.3917808219178082</v>
+        <v>0.4014778325123153</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09146341463414634</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01829268292682927</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04878048780487805</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1280487804878049</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006097560975609756</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1524390243902439</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="R9">
-        <v>0.1036585365853658</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="S9">
-        <v>0.451219512195122</v>
+        <v>0.4597701149425287</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1064039408866995</v>
+        <v>0.1063636363636364</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02167487684729064</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E10">
-        <v>0.0009852216748768472</v>
+        <v>0.0009090909090909091</v>
       </c>
       <c r="F10">
-        <v>0.07684729064039408</v>
+        <v>0.07818181818181819</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0748768472906404</v>
+        <v>0.07363636363636364</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01083743842364532</v>
+        <v>0.01</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2019704433497537</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0.09655172413793103</v>
+        <v>0.09363636363636364</v>
       </c>
       <c r="S10">
-        <v>0.4098522167487685</v>
+        <v>0.4145454545454546</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1307420494699647</v>
+        <v>0.135048231511254</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1130742049469965</v>
+        <v>0.1157556270096463</v>
       </c>
       <c r="K11">
-        <v>0.1908127208480565</v>
+        <v>0.1961414790996785</v>
       </c>
       <c r="L11">
-        <v>0.558303886925795</v>
+        <v>0.5434083601286174</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007067137809187279</v>
+        <v>0.009646302250803859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7610062893081762</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2138364779874214</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="K12">
-        <v>0.006289308176100629</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="L12">
-        <v>0.006289308176100629</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01257861635220126</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1875</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005952380952380952</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1547619047619048</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="I15">
-        <v>0.07738095238095238</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="J15">
-        <v>0.3928571428571428</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K15">
-        <v>0.08928571428571429</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02380952380952381</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N15">
-        <v>0.0119047619047619</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="O15">
-        <v>0.05952380952380952</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1845238095238095</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1637426900584795</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I16">
-        <v>0.04678362573099415</v>
+        <v>0.05</v>
       </c>
       <c r="J16">
-        <v>0.4210526315789473</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="K16">
-        <v>0.08771929824561403</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04093567251461988</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0935672514619883</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1286549707602339</v>
+        <v>0.1277777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01626016260162602</v>
+        <v>0.01741293532338309</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1788617886178862</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="I17">
-        <v>0.08401084010840108</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="J17">
-        <v>0.4417344173441735</v>
+        <v>0.445273631840796</v>
       </c>
       <c r="K17">
-        <v>0.09214092140921409</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02168021680216802</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="N17">
-        <v>0.002710027100271003</v>
+        <v>0.002487562189054726</v>
       </c>
       <c r="O17">
-        <v>0.04065040650406504</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1219512195121951</v>
+        <v>0.1169154228855721</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005434782608695652</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1521739130434783</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="I18">
-        <v>0.1413043478260869</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="J18">
-        <v>0.3967391304347826</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="K18">
-        <v>0.1630434782608696</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04347826086956522</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05434782608695652</v>
+        <v>0.05612244897959184</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01766437684003926</v>
+        <v>0.017825311942959</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2158979391560353</v>
+        <v>0.2183600713012478</v>
       </c>
       <c r="I19">
-        <v>0.08341511285574092</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="J19">
-        <v>0.3699705593719333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K19">
-        <v>0.1285574092247301</v>
+        <v>0.1301247771836007</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02355250245338567</v>
+        <v>0.0249554367201426</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.00089126559714795</v>
       </c>
       <c r="O19">
-        <v>0.07262021589793916</v>
+        <v>0.07308377896613191</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08832188420019627</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNI_B.xlsx
+++ b/team_specific_matrix/UNI_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1463414634146341</v>
+        <v>0.1439688715953307</v>
       </c>
       <c r="C2">
-        <v>0.6300813008130082</v>
+        <v>0.6381322957198443</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004065040650406504</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1341463414634146</v>
+        <v>0.132295719844358</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08536585365853659</v>
+        <v>0.08171206225680934</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006451612903225806</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.006451612903225806</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01290322580645161</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8064516129032258</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.167741935483871</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06796116504854369</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009708737864077669</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06310679611650485</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2330097087378641</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01941747572815534</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2184466019417476</v>
+        <v>0.2211981566820277</v>
       </c>
       <c r="R6">
-        <v>0.05825242718446602</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S6">
-        <v>0.3300970873786408</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09178743961352658</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00966183574879227</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="E7">
-        <v>0.004830917874396135</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F7">
-        <v>0.08695652173913043</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1187214611872146</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01449275362318841</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1980676328502415</v>
+        <v>0.2009132420091324</v>
       </c>
       <c r="R7">
-        <v>0.07729468599033816</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="S7">
-        <v>0.4057971014492754</v>
+        <v>0.3972602739726027</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0960591133004926</v>
+        <v>0.1014150943396226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01970443349753695</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05911330049261083</v>
+        <v>0.06367924528301887</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0960591133004926</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009852216748768473</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1896551724137931</v>
+        <v>0.1910377358490566</v>
       </c>
       <c r="R8">
-        <v>0.1280788177339902</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="S8">
-        <v>0.4014778325123153</v>
+        <v>0.3985849056603774</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08620689655172414</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01724137931034483</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05172413793103448</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.132183908045977</v>
+        <v>0.138121546961326</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005747126436781609</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1494252873563219</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="R9">
-        <v>0.09770114942528736</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="S9">
-        <v>0.4597701149425287</v>
+        <v>0.4530386740331492</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1063636363636364</v>
+        <v>0.1053555750658472</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02272727272727273</v>
+        <v>0.02194907813871817</v>
       </c>
       <c r="E10">
-        <v>0.0009090909090909091</v>
+        <v>0.000877963125548727</v>
       </c>
       <c r="F10">
-        <v>0.07818181818181819</v>
+        <v>0.07726075504828797</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07363636363636364</v>
+        <v>0.07550482879719052</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01</v>
+        <v>0.009657594381035996</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2</v>
+        <v>0.1984196663740123</v>
       </c>
       <c r="R10">
-        <v>0.09363636363636364</v>
+        <v>0.09482001755926252</v>
       </c>
       <c r="S10">
-        <v>0.4145454545454546</v>
+        <v>0.4161545215100966</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.135048231511254</v>
+        <v>0.1329305135951662</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1157556270096463</v>
+        <v>0.1148036253776435</v>
       </c>
       <c r="K11">
-        <v>0.1961414790996785</v>
+        <v>0.1933534743202417</v>
       </c>
       <c r="L11">
-        <v>0.5434083601286174</v>
+        <v>0.5468277945619335</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009646302250803859</v>
+        <v>0.01208459214501511</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7588235294117647</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2176470588235294</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="K12">
-        <v>0.005882352941176471</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
-        <v>0.005882352941176471</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01176470588235294</v>
+        <v>0.01092896174863388</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005434782608695652</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1521739130434783</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I15">
-        <v>0.08695652173913043</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J15">
-        <v>0.391304347826087</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="K15">
-        <v>0.08695652173913043</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N15">
-        <v>0.01630434782608696</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="O15">
-        <v>0.06521739130434782</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1739130434782609</v>
+        <v>0.1789473684210526</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01666666666666667</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1777777777777778</v>
+        <v>0.175531914893617</v>
       </c>
       <c r="I16">
-        <v>0.05</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="J16">
-        <v>0.4055555555555556</v>
+        <v>0.4095744680851064</v>
       </c>
       <c r="K16">
-        <v>0.09444444444444444</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03888888888888889</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08888888888888889</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1277777777777778</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01741293532338309</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1865671641791045</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I17">
-        <v>0.07960199004975124</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J17">
-        <v>0.445273631840796</v>
+        <v>0.437799043062201</v>
       </c>
       <c r="K17">
-        <v>0.08955223880597014</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02238805970149254</v>
+        <v>0.0215311004784689</v>
       </c>
       <c r="N17">
-        <v>0.002487562189054726</v>
+        <v>0.002392344497607655</v>
       </c>
       <c r="O17">
-        <v>0.03980099502487562</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1169154228855721</v>
+        <v>0.1148325358851675</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01020408163265306</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1479591836734694</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1326530612244898</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="J18">
-        <v>0.3979591836734694</v>
+        <v>0.3990147783251232</v>
       </c>
       <c r="K18">
-        <v>0.163265306122449</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04081632653061224</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05102040816326531</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05612244897959184</v>
+        <v>0.06403940886699508</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.017825311942959</v>
+        <v>0.01719690455717971</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2183600713012478</v>
+        <v>0.2218400687876182</v>
       </c>
       <c r="I19">
-        <v>0.08021390374331551</v>
+        <v>0.07996560619088564</v>
       </c>
       <c r="J19">
-        <v>0.3636363636363636</v>
+        <v>0.3611349957007738</v>
       </c>
       <c r="K19">
-        <v>0.1301247771836007</v>
+        <v>0.1332760103181427</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0249554367201426</v>
+        <v>0.02407566638005159</v>
       </c>
       <c r="N19">
-        <v>0.00089126559714795</v>
+        <v>0.0008598452278589854</v>
       </c>
       <c r="O19">
-        <v>0.07308377896613191</v>
+        <v>0.07222699914015478</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09090909090909091</v>
+        <v>0.08942390369733448</v>
       </c>
     </row>
   </sheetData>
